--- a/data/pg.xlsx
+++ b/data/pg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry Wu\Desktop\DK_HTTP_Client\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E5F45-4F42-48E5-B6AA-503A16A05726}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69328214-458A-427A-B7E5-E79BCCAAB9D5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <si>
-    <t>product_group</t>
-  </si>
-  <si>
     <t>pg_url</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>uncategorized</t>
+  </si>
+  <si>
+    <t>pg</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,16 +822,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -839,13 +839,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -856,13 +856,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -873,13 +873,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -890,13 +890,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -907,13 +907,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -924,13 +924,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -941,13 +941,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -958,13 +958,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -975,13 +975,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -992,13 +992,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1009,13 +1009,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -1026,13 +1026,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -1043,13 +1043,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -1060,13 +1060,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -1077,13 +1077,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -1094,13 +1094,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -1111,13 +1111,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -1128,13 +1128,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1145,13 +1145,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1162,13 +1162,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1179,13 +1179,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1196,13 +1196,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>69</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1213,13 +1213,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1230,13 +1230,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>75</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1247,13 +1247,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>77</v>
-      </c>
-      <c r="D26" t="s">
-        <v>78</v>
       </c>
       <c r="E26">
         <v>25</v>
@@ -1264,13 +1264,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
       </c>
       <c r="E27">
         <v>26</v>
@@ -1281,13 +1281,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>84</v>
       </c>
       <c r="E28">
         <v>27</v>
@@ -1298,13 +1298,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>87</v>
       </c>
       <c r="E29">
         <v>28</v>
@@ -1315,13 +1315,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>89</v>
-      </c>
-      <c r="D30" t="s">
-        <v>90</v>
       </c>
       <c r="E30">
         <v>29</v>
@@ -1332,13 +1332,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
       </c>
       <c r="E31">
         <v>30</v>
@@ -1349,13 +1349,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>95</v>
-      </c>
-      <c r="D32" t="s">
-        <v>96</v>
       </c>
       <c r="E32">
         <v>31</v>
@@ -1366,13 +1366,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>98</v>
-      </c>
-      <c r="D33" t="s">
-        <v>99</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1383,13 +1383,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
         <v>100</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -1400,13 +1400,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
       </c>
       <c r="E35">
         <v>34</v>
@@ -1417,13 +1417,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>107</v>
-      </c>
-      <c r="D36" t="s">
-        <v>108</v>
       </c>
       <c r="E36">
         <v>35</v>
@@ -1434,13 +1434,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>110</v>
-      </c>
-      <c r="D37" t="s">
-        <v>111</v>
       </c>
       <c r="E37">
         <v>36</v>
@@ -1451,13 +1451,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>113</v>
-      </c>
-      <c r="D38" t="s">
-        <v>114</v>
       </c>
       <c r="E38">
         <v>37</v>
@@ -1468,13 +1468,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>116</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
       </c>
       <c r="E39">
         <v>38</v>
@@ -1485,13 +1485,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>119</v>
-      </c>
-      <c r="D40" t="s">
-        <v>120</v>
       </c>
       <c r="E40">
         <v>39</v>
@@ -1502,13 +1502,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>122</v>
-      </c>
-      <c r="D41" t="s">
-        <v>123</v>
       </c>
       <c r="E41">
         <v>40</v>
@@ -1519,13 +1519,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
         <v>124</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>125</v>
-      </c>
-      <c r="D42" t="s">
-        <v>126</v>
       </c>
       <c r="E42">
         <v>41</v>
@@ -1536,13 +1536,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>128</v>
-      </c>
-      <c r="D43" t="s">
-        <v>129</v>
       </c>
       <c r="E43">
         <v>42</v>
@@ -1553,13 +1553,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>131</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
       </c>
       <c r="E44">
         <v>43</v>
@@ -1570,13 +1570,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
         <v>133</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>134</v>
-      </c>
-      <c r="D45" t="s">
-        <v>135</v>
       </c>
       <c r="E45">
         <v>44</v>
@@ -1587,13 +1587,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>137</v>
-      </c>
-      <c r="D46" t="s">
-        <v>138</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1604,13 +1604,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
         <v>139</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>140</v>
-      </c>
-      <c r="D47" t="s">
-        <v>141</v>
       </c>
       <c r="E47">
         <v>46</v>
